--- a/input/Financial Statement AAPL/Sales By Segment.xlsx
+++ b/input/Financial Statement AAPL/Sales By Segment.xlsx
@@ -604,7 +604,7 @@
         <v>24846</v>
       </c>
       <c r="F2" t="n">
-        <v>116473</v>
+        <v>28846</v>
       </c>
       <c r="G2" t="n">
         <v>141319</v>
@@ -619,7 +619,7 @@
         <v>29906</v>
       </c>
       <c r="K2" t="n">
-        <v>136793</v>
+        <v>37185</v>
       </c>
       <c r="L2" t="n">
         <v>166699</v>
@@ -634,7 +634,7 @@
         <v>25986</v>
       </c>
       <c r="P2" t="n">
-        <v>116395</v>
+        <v>33362</v>
       </c>
       <c r="Q2" t="n">
         <v>142381</v>
@@ -649,7 +649,7 @@
         <v>26418</v>
       </c>
       <c r="U2" t="n">
-        <v>111363</v>
+        <v>26444</v>
       </c>
       <c r="V2" t="n">
         <v>137781</v>
@@ -664,7 +664,7 @@
         <v>39570</v>
       </c>
       <c r="Z2" t="n">
-        <v>152403</v>
+        <v>38868</v>
       </c>
       <c r="AA2" t="n">
         <v>191973</v>
@@ -698,7 +698,7 @@
         <v>5592</v>
       </c>
       <c r="F3" t="n">
-        <v>20258</v>
+        <v>7170</v>
       </c>
       <c r="G3" t="n">
         <v>25850</v>
@@ -713,7 +713,7 @@
         <v>5330</v>
       </c>
       <c r="K3" t="n">
-        <v>20154</v>
+        <v>7411</v>
       </c>
       <c r="L3" t="n">
         <v>25484</v>
@@ -728,7 +728,7 @@
         <v>5820</v>
       </c>
       <c r="P3" t="n">
-        <v>19920</v>
+        <v>6991</v>
       </c>
       <c r="Q3" t="n">
         <v>25740</v>
@@ -743,7 +743,7 @@
         <v>7079</v>
       </c>
       <c r="U3" t="n">
-        <v>21543</v>
+        <v>9032</v>
       </c>
       <c r="V3" t="n">
         <v>28622</v>
@@ -758,7 +758,7 @@
         <v>8235</v>
       </c>
       <c r="Z3" t="n">
-        <v>26955</v>
+        <v>9178</v>
       </c>
       <c r="AA3" t="n">
         <v>35190</v>
@@ -792,7 +792,7 @@
         <v>4969</v>
       </c>
       <c r="F4" t="n">
-        <v>14253</v>
+        <v>4831</v>
       </c>
       <c r="G4" t="n">
         <v>19222</v>
@@ -807,7 +807,7 @@
         <v>4741</v>
       </c>
       <c r="K4" t="n">
-        <v>14064</v>
+        <v>4089</v>
       </c>
       <c r="L4" t="n">
         <v>18805</v>
@@ -822,7 +822,7 @@
         <v>5023</v>
       </c>
       <c r="P4" t="n">
-        <v>16257</v>
+        <v>4656</v>
       </c>
       <c r="Q4" t="n">
         <v>21280</v>
@@ -837,7 +837,7 @@
         <v>6582</v>
       </c>
       <c r="U4" t="n">
-        <v>17142</v>
+        <v>6797</v>
       </c>
       <c r="V4" t="n">
         <v>23724</v>
@@ -852,7 +852,7 @@
         <v>7368</v>
       </c>
       <c r="Z4" t="n">
-        <v>24494</v>
+        <v>8252</v>
       </c>
       <c r="AA4" t="n">
         <v>31862</v>
@@ -894,7 +894,7 @@
         <v>5525</v>
       </c>
       <c r="P5" t="n">
-        <v>18957</v>
+        <v>6520</v>
       </c>
       <c r="Q5" t="n">
         <v>24482</v>
@@ -909,7 +909,7 @@
         <v>6450</v>
       </c>
       <c r="U5" t="n">
-        <v>24170</v>
+        <v>7876</v>
       </c>
       <c r="V5" t="n">
         <v>30620</v>
@@ -924,7 +924,7 @@
         <v>8775</v>
       </c>
       <c r="Z5" t="n">
-        <v>29592</v>
+        <v>8785</v>
       </c>
       <c r="AA5" t="n">
         <v>38367</v>
@@ -958,7 +958,7 @@
         <v>7266</v>
       </c>
       <c r="F6" t="n">
-        <v>22714</v>
+        <v>8501</v>
       </c>
       <c r="G6" t="n">
         <v>29980</v>
@@ -973,7 +973,7 @@
         <v>9548</v>
       </c>
       <c r="K6" t="n">
-        <v>27642</v>
+        <v>9981</v>
       </c>
       <c r="L6" t="n">
         <v>37190</v>
@@ -988,7 +988,7 @@
         <v>11455</v>
       </c>
       <c r="P6" t="n">
-        <v>34836</v>
+        <v>12511</v>
       </c>
       <c r="Q6" t="n">
         <v>46291</v>
@@ -1003,7 +1003,7 @@
         <v>13156</v>
       </c>
       <c r="U6" t="n">
-        <v>40612</v>
+        <v>14549</v>
       </c>
       <c r="V6" t="n">
         <v>53768</v>
@@ -1018,7 +1018,7 @@
         <v>17486</v>
       </c>
       <c r="Z6" t="n">
-        <v>50939</v>
+        <v>18277</v>
       </c>
       <c r="AA6" t="n">
         <v>68425</v>
@@ -1052,7 +1052,7 @@
         <v>45408</v>
       </c>
       <c r="F7" t="n">
-        <v>183826</v>
+        <v>52579</v>
       </c>
       <c r="G7" t="n">
         <v>229234</v>
@@ -1067,7 +1067,7 @@
         <v>53265</v>
       </c>
       <c r="K7" t="n">
-        <v>212330</v>
+        <v>62900</v>
       </c>
       <c r="L7" t="n">
         <v>265595</v>
@@ -1082,7 +1082,7 @@
         <v>53809</v>
       </c>
       <c r="P7" t="n">
-        <v>206365</v>
+        <v>64040</v>
       </c>
       <c r="Q7" t="n">
         <v>260174</v>
@@ -1097,7 +1097,7 @@
         <v>59685</v>
       </c>
       <c r="U7" t="n">
-        <v>214830</v>
+        <v>64698</v>
       </c>
       <c r="V7" t="n">
         <v>274515</v>
@@ -1112,7 +1112,7 @@
         <v>81434</v>
       </c>
       <c r="Z7" t="n">
-        <v>284383</v>
+        <v>83360</v>
       </c>
       <c r="AA7" t="n">
         <v>365817</v>
@@ -1146,7 +1146,7 @@
         <v>2735</v>
       </c>
       <c r="F8" t="n">
-        <v>10128</v>
+        <v>3231</v>
       </c>
       <c r="G8" t="n">
         <v>12863</v>
@@ -1161,7 +1161,7 @@
         <v>3740</v>
       </c>
       <c r="K8" t="n">
-        <v>13677</v>
+        <v>4234</v>
       </c>
       <c r="L8" t="n">
         <v>17417</v>

--- a/input/Financial Statement AAPL/Sales By Segment.xlsx
+++ b/input/Financial Statement AAPL/Sales By Segment.xlsx
@@ -1,37 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /input/Financial Statement AAPL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A02B59-EBD0-7B4F-9F8E-C9F3DDA4B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Q1 2017</t>
+  </si>
+  <si>
+    <t>Q2 2017</t>
+  </si>
+  <si>
+    <t>Q3 2017</t>
+  </si>
+  <si>
+    <t>Q4 2017</t>
+  </si>
+  <si>
+    <t>Year Ended 2017</t>
+  </si>
+  <si>
+    <t>Q1 2018</t>
+  </si>
+  <si>
+    <t>Q2 2018</t>
+  </si>
+  <si>
+    <t>Q3 2018</t>
+  </si>
+  <si>
+    <t>Q4 2018</t>
+  </si>
+  <si>
+    <t>Year Ended 2018</t>
+  </si>
+  <si>
+    <t>Q1 2019</t>
+  </si>
+  <si>
+    <t>Q2 2019</t>
+  </si>
+  <si>
+    <t>Q3 2019</t>
+  </si>
+  <si>
+    <t>Q4 2019</t>
+  </si>
+  <si>
+    <t>Year Ended 2019</t>
+  </si>
+  <si>
+    <t>Q1 2020</t>
+  </si>
+  <si>
+    <t>Q2 2020</t>
+  </si>
+  <si>
+    <t>Q3 2020</t>
+  </si>
+  <si>
+    <t>Q4 2020</t>
+  </si>
+  <si>
+    <t>Year Ended 2020</t>
+  </si>
+  <si>
+    <t>Q1 2021</t>
+  </si>
+  <si>
+    <t>Q2 2021</t>
+  </si>
+  <si>
+    <t>Q3 2021</t>
+  </si>
+  <si>
+    <t>Q4 2021</t>
+  </si>
+  <si>
+    <t>Year Ended 2021</t>
+  </si>
+  <si>
+    <t>Q1 2022</t>
+  </si>
+  <si>
+    <t>Q2 2022</t>
+  </si>
+  <si>
+    <t>Q3 2022</t>
+  </si>
+  <si>
+    <t>iPhone</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
+  <si>
+    <t>Wearables, Home and Accessories</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Total net sales</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +175,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,770 +499,637 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2016</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2017</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2017</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2017</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Q4 2017</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2017</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2018</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2018</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2018</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Q4 2018</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2018</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2019</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2019</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2019</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Q4 2019</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2019</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2020</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2020</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2020</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Q4 2020</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2020</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2021</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2021</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2021</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Q4 2021</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Year Ended 2021</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Q1 2022</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2022</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2022</t>
-        </is>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>iPhone</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>136700</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
         <v>54378</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2">
         <v>33249</v>
       </c>
-      <c r="E2" t="n">
+      <c r="D2">
         <v>24846</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E2">
         <v>28846</v>
       </c>
-      <c r="G2" t="n">
+      <c r="F2">
         <v>141319</v>
       </c>
-      <c r="H2" t="n">
+      <c r="G2">
         <v>61576</v>
       </c>
-      <c r="I2" t="n">
+      <c r="H2">
         <v>38032</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I2">
         <v>29906</v>
       </c>
-      <c r="K2" t="n">
+      <c r="J2">
         <v>37185</v>
       </c>
-      <c r="L2" t="n">
+      <c r="K2">
         <v>166699</v>
       </c>
-      <c r="M2" t="n">
+      <c r="L2">
         <v>51982</v>
       </c>
-      <c r="N2" t="n">
+      <c r="M2">
         <v>31051</v>
       </c>
-      <c r="O2" t="n">
+      <c r="N2">
         <v>25986</v>
       </c>
-      <c r="P2" t="n">
+      <c r="O2">
         <v>33362</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="P2">
         <v>142381</v>
       </c>
-      <c r="R2" t="n">
+      <c r="Q2">
         <v>55957</v>
       </c>
-      <c r="S2" t="n">
+      <c r="R2">
         <v>28962</v>
       </c>
-      <c r="T2" t="n">
+      <c r="S2">
         <v>26418</v>
       </c>
-      <c r="U2" t="n">
+      <c r="T2">
         <v>26444</v>
       </c>
-      <c r="V2" t="n">
+      <c r="U2">
         <v>137781</v>
       </c>
-      <c r="W2" t="n">
+      <c r="V2">
         <v>65597</v>
       </c>
-      <c r="X2" t="n">
+      <c r="W2">
         <v>47938</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="X2">
         <v>39570</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Y2">
         <v>38868</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="Z2">
         <v>191973</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AA2">
         <v>71628</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AB2">
         <v>50570</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AC2">
         <v>40665</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mac</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22831</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
         <v>7244</v>
       </c>
-      <c r="D3" t="n">
+      <c r="C3">
         <v>5844</v>
       </c>
-      <c r="E3" t="n">
+      <c r="D3">
         <v>5592</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E3">
         <v>7170</v>
       </c>
-      <c r="G3" t="n">
+      <c r="F3">
         <v>25850</v>
       </c>
-      <c r="H3" t="n">
+      <c r="G3">
         <v>6895</v>
       </c>
-      <c r="I3" t="n">
+      <c r="H3">
         <v>5848</v>
       </c>
-      <c r="J3" t="n">
+      <c r="I3">
         <v>5330</v>
       </c>
-      <c r="K3" t="n">
+      <c r="J3">
         <v>7411</v>
       </c>
-      <c r="L3" t="n">
+      <c r="K3">
         <v>25484</v>
       </c>
-      <c r="M3" t="n">
+      <c r="L3">
         <v>7416</v>
       </c>
-      <c r="N3" t="n">
+      <c r="M3">
         <v>5513</v>
       </c>
-      <c r="O3" t="n">
+      <c r="N3">
         <v>5820</v>
       </c>
-      <c r="P3" t="n">
+      <c r="O3">
         <v>6991</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="P3">
         <v>25740</v>
       </c>
-      <c r="R3" t="n">
+      <c r="Q3">
         <v>7160</v>
       </c>
-      <c r="S3" t="n">
+      <c r="R3">
         <v>5351</v>
       </c>
-      <c r="T3" t="n">
+      <c r="S3">
         <v>7079</v>
       </c>
-      <c r="U3" t="n">
+      <c r="T3">
         <v>9032</v>
       </c>
-      <c r="V3" t="n">
+      <c r="U3">
         <v>28622</v>
       </c>
-      <c r="W3" t="n">
+      <c r="V3">
         <v>8675</v>
       </c>
-      <c r="X3" t="n">
+      <c r="W3">
         <v>9102</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="X3">
         <v>8235</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Y3">
         <v>9178</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="Z3">
         <v>35190</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AA3">
         <v>10852</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AB3">
         <v>10435</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AC3">
         <v>7382</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>iPad</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20628</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
         <v>5533</v>
       </c>
-      <c r="D4" t="n">
+      <c r="C4">
         <v>3889</v>
       </c>
-      <c r="E4" t="n">
+      <c r="D4">
         <v>4969</v>
       </c>
-      <c r="F4" t="n">
+      <c r="E4">
         <v>4831</v>
       </c>
-      <c r="G4" t="n">
+      <c r="F4">
         <v>19222</v>
       </c>
-      <c r="H4" t="n">
+      <c r="G4">
         <v>5862</v>
       </c>
-      <c r="I4" t="n">
+      <c r="H4">
         <v>4113</v>
       </c>
-      <c r="J4" t="n">
+      <c r="I4">
         <v>4741</v>
       </c>
-      <c r="K4" t="n">
+      <c r="J4">
         <v>4089</v>
       </c>
-      <c r="L4" t="n">
+      <c r="K4">
         <v>18805</v>
       </c>
-      <c r="M4" t="n">
+      <c r="L4">
         <v>6729</v>
       </c>
-      <c r="N4" t="n">
+      <c r="M4">
         <v>4872</v>
       </c>
-      <c r="O4" t="n">
+      <c r="N4">
         <v>5023</v>
       </c>
-      <c r="P4" t="n">
+      <c r="O4">
         <v>4656</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="P4">
         <v>21280</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Q4">
         <v>5977</v>
       </c>
-      <c r="S4" t="n">
+      <c r="R4">
         <v>4368</v>
       </c>
-      <c r="T4" t="n">
+      <c r="S4">
         <v>6582</v>
       </c>
-      <c r="U4" t="n">
+      <c r="T4">
         <v>6797</v>
       </c>
-      <c r="V4" t="n">
+      <c r="U4">
         <v>23724</v>
       </c>
-      <c r="W4" t="n">
+      <c r="V4">
         <v>8435</v>
       </c>
-      <c r="X4" t="n">
+      <c r="W4">
         <v>7807</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="X4">
         <v>7368</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Y4">
         <v>8252</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="Z4">
         <v>31862</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AA4">
         <v>7248</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AB4">
         <v>7646</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AC4">
         <v>7224</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Wearables, Home and Accessories</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4024</v>
+      </c>
+      <c r="C5">
+        <v>2873</v>
+      </c>
+      <c r="D5">
+        <v>2735</v>
+      </c>
+      <c r="E5">
+        <v>3231</v>
+      </c>
+      <c r="F5">
+        <v>12863</v>
+      </c>
+      <c r="G5">
+        <v>5489</v>
+      </c>
+      <c r="H5">
+        <v>3954</v>
+      </c>
+      <c r="I5">
+        <v>3740</v>
+      </c>
+      <c r="J5">
+        <v>4234</v>
+      </c>
+      <c r="K5">
+        <v>17417</v>
+      </c>
+      <c r="L5">
         <v>7308</v>
       </c>
-      <c r="N5" t="n">
+      <c r="M5">
         <v>5129</v>
       </c>
-      <c r="O5" t="n">
+      <c r="N5">
         <v>5525</v>
       </c>
-      <c r="P5" t="n">
+      <c r="O5">
         <v>6520</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="P5">
         <v>24482</v>
       </c>
-      <c r="R5" t="n">
+      <c r="Q5">
         <v>10010</v>
       </c>
-      <c r="S5" t="n">
+      <c r="R5">
         <v>6284</v>
       </c>
-      <c r="T5" t="n">
+      <c r="S5">
         <v>6450</v>
       </c>
-      <c r="U5" t="n">
+      <c r="T5">
         <v>7876</v>
       </c>
-      <c r="V5" t="n">
+      <c r="U5">
         <v>30620</v>
       </c>
-      <c r="W5" t="n">
+      <c r="V5">
         <v>12971</v>
       </c>
-      <c r="X5" t="n">
+      <c r="W5">
         <v>7836</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="X5">
         <v>8775</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Y5">
         <v>8785</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="Z5">
         <v>38367</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AA5">
         <v>14701</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AB5">
         <v>8806</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AC5">
         <v>8084</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>24348</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
         <v>7172</v>
       </c>
-      <c r="D6" t="n">
+      <c r="C6">
         <v>7041</v>
       </c>
-      <c r="E6" t="n">
+      <c r="D6">
         <v>7266</v>
       </c>
-      <c r="F6" t="n">
+      <c r="E6">
         <v>8501</v>
       </c>
-      <c r="G6" t="n">
+      <c r="F6">
         <v>29980</v>
       </c>
-      <c r="H6" t="n">
+      <c r="G6">
         <v>8471</v>
       </c>
-      <c r="I6" t="n">
+      <c r="H6">
         <v>9190</v>
       </c>
-      <c r="J6" t="n">
+      <c r="I6">
         <v>9548</v>
       </c>
-      <c r="K6" t="n">
+      <c r="J6">
         <v>9981</v>
       </c>
-      <c r="L6" t="n">
+      <c r="K6">
         <v>37190</v>
       </c>
-      <c r="M6" t="n">
+      <c r="L6">
         <v>10875</v>
       </c>
-      <c r="N6" t="n">
+      <c r="M6">
         <v>11450</v>
       </c>
-      <c r="O6" t="n">
+      <c r="N6">
         <v>11455</v>
       </c>
-      <c r="P6" t="n">
+      <c r="O6">
         <v>12511</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="P6">
         <v>46291</v>
       </c>
-      <c r="R6" t="n">
+      <c r="Q6">
         <v>12715</v>
       </c>
-      <c r="S6" t="n">
+      <c r="R6">
         <v>13348</v>
       </c>
-      <c r="T6" t="n">
+      <c r="S6">
         <v>13156</v>
       </c>
-      <c r="U6" t="n">
+      <c r="T6">
         <v>14549</v>
       </c>
-      <c r="V6" t="n">
+      <c r="U6">
         <v>53768</v>
       </c>
-      <c r="W6" t="n">
+      <c r="V6">
         <v>15761</v>
       </c>
-      <c r="X6" t="n">
+      <c r="W6">
         <v>16901</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="X6">
         <v>17486</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Y6">
         <v>18277</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="Z6">
         <v>68425</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AA6">
         <v>19516</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AB6">
         <v>19821</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AC6">
         <v>19604</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total net sales</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>215639</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
         <v>78351</v>
       </c>
-      <c r="D7" t="n">
+      <c r="C7">
         <v>52896</v>
       </c>
-      <c r="E7" t="n">
+      <c r="D7">
         <v>45408</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E7">
         <v>52579</v>
       </c>
-      <c r="G7" t="n">
+      <c r="F7">
         <v>229234</v>
       </c>
-      <c r="H7" t="n">
+      <c r="G7">
         <v>88293</v>
       </c>
-      <c r="I7" t="n">
+      <c r="H7">
         <v>61137</v>
       </c>
-      <c r="J7" t="n">
+      <c r="I7">
         <v>53265</v>
       </c>
-      <c r="K7" t="n">
+      <c r="J7">
         <v>62900</v>
       </c>
-      <c r="L7" t="n">
+      <c r="K7">
         <v>265595</v>
       </c>
-      <c r="M7" t="n">
+      <c r="L7">
         <v>84310</v>
       </c>
-      <c r="N7" t="n">
+      <c r="M7">
         <v>58015</v>
       </c>
-      <c r="O7" t="n">
+      <c r="N7">
         <v>53809</v>
       </c>
-      <c r="P7" t="n">
+      <c r="O7">
         <v>64040</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="P7">
         <v>260174</v>
       </c>
-      <c r="R7" t="n">
+      <c r="Q7">
         <v>91819</v>
       </c>
-      <c r="S7" t="n">
+      <c r="R7">
         <v>58313</v>
       </c>
-      <c r="T7" t="n">
+      <c r="S7">
         <v>59685</v>
       </c>
-      <c r="U7" t="n">
+      <c r="T7">
         <v>64698</v>
       </c>
-      <c r="V7" t="n">
+      <c r="U7">
         <v>274515</v>
       </c>
-      <c r="W7" t="n">
+      <c r="V7">
         <v>111439</v>
       </c>
-      <c r="X7" t="n">
+      <c r="W7">
         <v>89584</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="X7">
         <v>81434</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Y7">
         <v>83360</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="Z7">
         <v>365817</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AA7">
         <v>123945</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AB7">
         <v>97278</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AC7">
         <v>82959</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other Products</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11132</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4024</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2873</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2735</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3231</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12863</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5489</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3954</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3740</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4234</v>
-      </c>
-      <c r="L8" t="n">
-        <v>17417</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/input/Financial Statement AAPL/Sales By Segment.xlsx
+++ b/input/Financial Statement AAPL/Sales By Segment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /input/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A02B59-EBD0-7B4F-9F8E-C9F3DDA4B56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164DBDD-EA28-C643-BC83-81B8703BAC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,11 +32,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>Year Ended 2016</t>
+  </si>
+  <si>
     <t>Q1 2017</t>
   </si>
   <si>
@@ -121,6 +124,24 @@
     <t>Q3 2022</t>
   </si>
   <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Greater China</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Rest of Asia Pacific</t>
+  </si>
+  <si>
+    <t>Total net sales</t>
+  </si>
+  <si>
     <t>iPhone</t>
   </si>
   <si>
@@ -136,7 +157,10 @@
     <t>Services</t>
   </si>
   <si>
-    <t>Total net sales</t>
+    <t>Unit Sales by Product:</t>
+  </si>
+  <si>
+    <t>Cost of Mac</t>
   </si>
 </sst>
 </file>
@@ -500,15 +524,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,539 +620,1280 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2">
+        <v>86613</v>
+      </c>
+      <c r="C2">
+        <v>31968</v>
+      </c>
+      <c r="D2">
+        <v>21157</v>
+      </c>
+      <c r="E2">
+        <v>20376</v>
+      </c>
+      <c r="F2">
+        <v>23099</v>
+      </c>
+      <c r="G2">
+        <v>96600</v>
+      </c>
+      <c r="H2">
+        <v>35193</v>
+      </c>
+      <c r="I2">
+        <v>24841</v>
+      </c>
+      <c r="J2">
+        <v>24542</v>
+      </c>
+      <c r="K2">
+        <v>27517</v>
+      </c>
+      <c r="L2">
+        <v>112093</v>
+      </c>
+      <c r="M2">
+        <v>36940</v>
+      </c>
+      <c r="N2">
+        <v>25596</v>
+      </c>
+      <c r="O2">
+        <v>25056</v>
+      </c>
+      <c r="P2">
+        <v>29322</v>
+      </c>
+      <c r="Q2">
+        <v>116914</v>
+      </c>
+      <c r="R2">
+        <v>41367</v>
+      </c>
+      <c r="S2">
+        <v>25473</v>
+      </c>
+      <c r="T2">
+        <v>27018</v>
+      </c>
+      <c r="U2">
+        <v>30698</v>
+      </c>
+      <c r="V2">
+        <v>124556</v>
+      </c>
+      <c r="W2">
+        <v>46310</v>
+      </c>
+      <c r="X2">
+        <v>34306</v>
+      </c>
+      <c r="Y2">
+        <v>35870</v>
+      </c>
+      <c r="Z2">
+        <v>36820</v>
+      </c>
+      <c r="AA2">
+        <v>153306</v>
+      </c>
+      <c r="AB2">
+        <v>51496</v>
+      </c>
+      <c r="AC2">
+        <v>40882</v>
+      </c>
+      <c r="AD2">
+        <v>37472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>49952</v>
+      </c>
+      <c r="C3">
+        <v>18521</v>
+      </c>
+      <c r="D3">
+        <v>12733</v>
+      </c>
+      <c r="E3">
+        <v>10675</v>
+      </c>
+      <c r="F3">
+        <v>13009</v>
+      </c>
+      <c r="G3">
+        <v>54938</v>
+      </c>
+      <c r="H3">
+        <v>21054</v>
+      </c>
+      <c r="I3">
+        <v>13846</v>
+      </c>
+      <c r="J3">
+        <v>12138</v>
+      </c>
+      <c r="K3">
+        <v>15382</v>
+      </c>
+      <c r="L3">
+        <v>62420</v>
+      </c>
+      <c r="M3">
+        <v>20363</v>
+      </c>
+      <c r="N3">
+        <v>13054</v>
+      </c>
+      <c r="O3">
+        <v>11925</v>
+      </c>
+      <c r="P3">
+        <v>14946</v>
+      </c>
+      <c r="Q3">
+        <v>60288</v>
+      </c>
+      <c r="R3">
+        <v>23273</v>
+      </c>
+      <c r="S3">
+        <v>14294</v>
+      </c>
+      <c r="T3">
+        <v>14173</v>
+      </c>
+      <c r="U3">
+        <v>16900</v>
+      </c>
+      <c r="V3">
+        <v>68640</v>
+      </c>
+      <c r="W3">
+        <v>27306</v>
+      </c>
+      <c r="X3">
+        <v>22264</v>
+      </c>
+      <c r="Y3">
+        <v>18943</v>
+      </c>
+      <c r="Z3">
+        <v>20794</v>
+      </c>
+      <c r="AA3">
+        <v>89307</v>
+      </c>
+      <c r="AB3">
+        <v>29749</v>
+      </c>
+      <c r="AC3">
+        <v>23287</v>
+      </c>
+      <c r="AD3">
+        <v>19287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>48492</v>
+      </c>
+      <c r="C4">
+        <v>16233</v>
+      </c>
+      <c r="D4">
+        <v>10726</v>
+      </c>
+      <c r="E4">
+        <v>8004</v>
+      </c>
+      <c r="F4">
+        <v>9801</v>
+      </c>
+      <c r="G4">
+        <v>44764</v>
+      </c>
+      <c r="H4">
+        <v>17956</v>
+      </c>
+      <c r="I4">
+        <v>13024</v>
+      </c>
+      <c r="J4">
+        <v>9551</v>
+      </c>
+      <c r="K4">
+        <v>11411</v>
+      </c>
+      <c r="L4">
+        <v>51942</v>
+      </c>
+      <c r="M4">
+        <v>13169</v>
+      </c>
+      <c r="N4">
+        <v>10218</v>
+      </c>
+      <c r="O4">
+        <v>9157</v>
+      </c>
+      <c r="P4">
+        <v>11134</v>
+      </c>
+      <c r="Q4">
+        <v>43678</v>
+      </c>
+      <c r="R4">
+        <v>13578</v>
+      </c>
+      <c r="S4">
+        <v>9455</v>
+      </c>
+      <c r="T4">
+        <v>9329</v>
+      </c>
+      <c r="U4">
+        <v>7946</v>
+      </c>
+      <c r="V4">
+        <v>40308</v>
+      </c>
+      <c r="W4">
+        <v>21313</v>
+      </c>
+      <c r="X4">
+        <v>17728</v>
+      </c>
+      <c r="Y4">
+        <v>14762</v>
+      </c>
+      <c r="Z4">
+        <v>14563</v>
+      </c>
+      <c r="AA4">
+        <v>68366</v>
+      </c>
+      <c r="AB4">
+        <v>25783</v>
+      </c>
+      <c r="AC4">
+        <v>18343</v>
+      </c>
+      <c r="AD4">
+        <v>14604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>16928</v>
+      </c>
+      <c r="C5">
+        <v>5766</v>
+      </c>
+      <c r="D5">
+        <v>4485</v>
+      </c>
+      <c r="E5">
+        <v>3624</v>
+      </c>
+      <c r="F5">
+        <v>3858</v>
+      </c>
+      <c r="G5">
+        <v>17733</v>
+      </c>
+      <c r="H5">
+        <v>7237</v>
+      </c>
+      <c r="I5">
+        <v>5468</v>
+      </c>
+      <c r="J5">
+        <v>3867</v>
+      </c>
+      <c r="K5">
+        <v>5161</v>
+      </c>
+      <c r="L5">
+        <v>21733</v>
+      </c>
+      <c r="M5">
+        <v>6910</v>
+      </c>
+      <c r="N5">
+        <v>5532</v>
+      </c>
+      <c r="O5">
+        <v>4082</v>
+      </c>
+      <c r="P5">
+        <v>4982</v>
+      </c>
+      <c r="Q5">
+        <v>21506</v>
+      </c>
+      <c r="R5">
+        <v>6223</v>
+      </c>
+      <c r="S5">
+        <v>5206</v>
+      </c>
+      <c r="T5">
+        <v>4966</v>
+      </c>
+      <c r="U5">
+        <v>5023</v>
+      </c>
+      <c r="V5">
+        <v>21418</v>
+      </c>
+      <c r="W5">
+        <v>8285</v>
+      </c>
+      <c r="X5">
+        <v>7742</v>
+      </c>
+      <c r="Y5">
+        <v>6464</v>
+      </c>
+      <c r="Z5">
+        <v>5991</v>
+      </c>
+      <c r="AA5">
+        <v>28482</v>
+      </c>
+      <c r="AB5">
+        <v>7107</v>
+      </c>
+      <c r="AC5">
+        <v>7724</v>
+      </c>
+      <c r="AD5">
+        <v>5446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>13654</v>
+      </c>
+      <c r="C6">
+        <v>5863</v>
+      </c>
+      <c r="D6">
+        <v>3795</v>
+      </c>
+      <c r="E6">
+        <v>2729</v>
+      </c>
+      <c r="F6">
+        <v>2812</v>
+      </c>
+      <c r="G6">
+        <v>15199</v>
+      </c>
+      <c r="H6">
+        <v>6853</v>
+      </c>
+      <c r="I6">
+        <v>3958</v>
+      </c>
+      <c r="J6">
+        <v>3167</v>
+      </c>
+      <c r="K6">
+        <v>3429</v>
+      </c>
+      <c r="L6">
+        <v>17407</v>
+      </c>
+      <c r="M6">
+        <v>6928</v>
+      </c>
+      <c r="N6">
+        <v>3615</v>
+      </c>
+      <c r="O6">
+        <v>3589</v>
+      </c>
+      <c r="P6">
+        <v>3656</v>
+      </c>
+      <c r="Q6">
+        <v>17788</v>
+      </c>
+      <c r="R6">
+        <v>7378</v>
+      </c>
+      <c r="S6">
+        <v>3885</v>
+      </c>
+      <c r="T6">
+        <v>4199</v>
+      </c>
+      <c r="U6">
+        <v>4131</v>
+      </c>
+      <c r="V6">
+        <v>19593</v>
+      </c>
+      <c r="W6">
+        <v>8225</v>
+      </c>
+      <c r="X6">
+        <v>7544</v>
+      </c>
+      <c r="Y6">
+        <v>5395</v>
+      </c>
+      <c r="Z6">
+        <v>5192</v>
+      </c>
+      <c r="AA6">
+        <v>26356</v>
+      </c>
+      <c r="AB6">
+        <v>9810</v>
+      </c>
+      <c r="AC6">
+        <v>7042</v>
+      </c>
+      <c r="AD6">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>215639</v>
+      </c>
+      <c r="C7">
+        <v>78351</v>
+      </c>
+      <c r="D7">
+        <v>52896</v>
+      </c>
+      <c r="E7">
+        <v>45408</v>
+      </c>
+      <c r="F7">
+        <v>52579</v>
+      </c>
+      <c r="G7">
+        <v>229234</v>
+      </c>
+      <c r="H7">
+        <v>88293</v>
+      </c>
+      <c r="I7">
+        <v>61137</v>
+      </c>
+      <c r="J7">
+        <v>53265</v>
+      </c>
+      <c r="K7">
+        <v>62900</v>
+      </c>
+      <c r="L7">
+        <v>265595</v>
+      </c>
+      <c r="M7">
+        <v>84310</v>
+      </c>
+      <c r="N7">
+        <v>58015</v>
+      </c>
+      <c r="O7">
+        <v>53809</v>
+      </c>
+      <c r="P7">
+        <v>64040</v>
+      </c>
+      <c r="Q7">
+        <v>260174</v>
+      </c>
+      <c r="R7">
+        <v>91819</v>
+      </c>
+      <c r="S7">
+        <v>58313</v>
+      </c>
+      <c r="T7">
+        <v>59685</v>
+      </c>
+      <c r="U7">
+        <v>64698</v>
+      </c>
+      <c r="V7">
+        <v>274515</v>
+      </c>
+      <c r="W7">
+        <v>111439</v>
+      </c>
+      <c r="X7">
+        <v>89584</v>
+      </c>
+      <c r="Y7">
+        <v>81434</v>
+      </c>
+      <c r="Z7">
+        <v>83360</v>
+      </c>
+      <c r="AA7">
+        <v>365817</v>
+      </c>
+      <c r="AB7">
+        <v>123945</v>
+      </c>
+      <c r="AC7">
+        <v>97278</v>
+      </c>
+      <c r="AD7">
+        <v>82959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>136700</v>
+      </c>
+      <c r="C9">
         <v>54378</v>
       </c>
-      <c r="C2">
+      <c r="D9">
         <v>33249</v>
       </c>
-      <c r="D2">
+      <c r="E9">
         <v>24846</v>
       </c>
-      <c r="E2">
+      <c r="F9">
         <v>28846</v>
       </c>
-      <c r="F2">
+      <c r="G9">
         <v>141319</v>
       </c>
-      <c r="G2">
+      <c r="H9">
         <v>61576</v>
       </c>
-      <c r="H2">
+      <c r="I9">
         <v>38032</v>
       </c>
-      <c r="I2">
+      <c r="J9">
         <v>29906</v>
       </c>
-      <c r="J2">
+      <c r="K9">
         <v>37185</v>
       </c>
-      <c r="K2">
+      <c r="L9">
         <v>166699</v>
       </c>
-      <c r="L2">
+      <c r="M9">
         <v>51982</v>
       </c>
-      <c r="M2">
+      <c r="N9">
         <v>31051</v>
       </c>
-      <c r="N2">
+      <c r="O9">
         <v>25986</v>
       </c>
-      <c r="O2">
+      <c r="P9">
         <v>33362</v>
       </c>
-      <c r="P2">
+      <c r="Q9">
         <v>142381</v>
       </c>
-      <c r="Q2">
+      <c r="R9">
         <v>55957</v>
       </c>
-      <c r="R2">
+      <c r="S9">
         <v>28962</v>
       </c>
-      <c r="S2">
+      <c r="T9">
         <v>26418</v>
       </c>
-      <c r="T2">
+      <c r="U9">
         <v>26444</v>
       </c>
-      <c r="U2">
+      <c r="V9">
         <v>137781</v>
       </c>
-      <c r="V2">
+      <c r="W9">
         <v>65597</v>
       </c>
-      <c r="W2">
+      <c r="X9">
         <v>47938</v>
       </c>
-      <c r="X2">
+      <c r="Y9">
         <v>39570</v>
       </c>
-      <c r="Y2">
+      <c r="Z9">
         <v>38868</v>
       </c>
-      <c r="Z2">
+      <c r="AA9">
         <v>191973</v>
       </c>
-      <c r="AA2">
+      <c r="AB9">
         <v>71628</v>
       </c>
-      <c r="AB2">
+      <c r="AC9">
         <v>50570</v>
       </c>
-      <c r="AC2">
+      <c r="AD9">
         <v>40665</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>22831</v>
+      </c>
+      <c r="C10">
         <v>7244</v>
       </c>
-      <c r="C3">
+      <c r="D10">
         <v>5844</v>
       </c>
-      <c r="D3">
+      <c r="E10">
         <v>5592</v>
       </c>
-      <c r="E3">
+      <c r="F10">
         <v>7170</v>
       </c>
-      <c r="F3">
+      <c r="G10">
         <v>25850</v>
       </c>
-      <c r="G3">
+      <c r="H10">
         <v>6895</v>
       </c>
-      <c r="H3">
+      <c r="I10">
         <v>5848</v>
       </c>
-      <c r="I3">
+      <c r="J10">
         <v>5330</v>
       </c>
-      <c r="J3">
+      <c r="K10">
         <v>7411</v>
       </c>
-      <c r="K3">
+      <c r="L10">
         <v>25484</v>
       </c>
-      <c r="L3">
+      <c r="M10">
         <v>7416</v>
       </c>
-      <c r="M3">
+      <c r="N10">
         <v>5513</v>
       </c>
-      <c r="N3">
+      <c r="O10">
         <v>5820</v>
       </c>
-      <c r="O3">
+      <c r="P10">
         <v>6991</v>
       </c>
-      <c r="P3">
+      <c r="Q10">
         <v>25740</v>
       </c>
-      <c r="Q3">
+      <c r="R10">
         <v>7160</v>
       </c>
-      <c r="R3">
+      <c r="S10">
         <v>5351</v>
       </c>
-      <c r="S3">
+      <c r="T10">
         <v>7079</v>
       </c>
-      <c r="T3">
+      <c r="U10">
         <v>9032</v>
       </c>
-      <c r="U3">
+      <c r="V10">
         <v>28622</v>
       </c>
-      <c r="V3">
+      <c r="W10">
         <v>8675</v>
       </c>
-      <c r="W3">
+      <c r="X10">
         <v>9102</v>
       </c>
-      <c r="X3">
+      <c r="Y10">
         <v>8235</v>
       </c>
-      <c r="Y3">
+      <c r="Z10">
         <v>9178</v>
       </c>
-      <c r="Z3">
+      <c r="AA10">
         <v>35190</v>
       </c>
-      <c r="AA3">
+      <c r="AB10">
         <v>10852</v>
       </c>
-      <c r="AB3">
+      <c r="AC10">
         <v>10435</v>
       </c>
-      <c r="AC3">
+      <c r="AD10">
         <v>7382</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>20628</v>
+      </c>
+      <c r="C11">
         <v>5533</v>
       </c>
-      <c r="C4">
+      <c r="D11">
         <v>3889</v>
       </c>
-      <c r="D4">
+      <c r="E11">
         <v>4969</v>
       </c>
-      <c r="E4">
+      <c r="F11">
         <v>4831</v>
       </c>
-      <c r="F4">
+      <c r="G11">
         <v>19222</v>
       </c>
-      <c r="G4">
+      <c r="H11">
         <v>5862</v>
       </c>
-      <c r="H4">
+      <c r="I11">
         <v>4113</v>
       </c>
-      <c r="I4">
+      <c r="J11">
         <v>4741</v>
       </c>
-      <c r="J4">
+      <c r="K11">
         <v>4089</v>
       </c>
-      <c r="K4">
+      <c r="L11">
         <v>18805</v>
       </c>
-      <c r="L4">
+      <c r="M11">
         <v>6729</v>
       </c>
-      <c r="M4">
+      <c r="N11">
         <v>4872</v>
       </c>
-      <c r="N4">
+      <c r="O11">
         <v>5023</v>
       </c>
-      <c r="O4">
+      <c r="P11">
         <v>4656</v>
       </c>
-      <c r="P4">
+      <c r="Q11">
         <v>21280</v>
       </c>
-      <c r="Q4">
+      <c r="R11">
         <v>5977</v>
       </c>
-      <c r="R4">
+      <c r="S11">
         <v>4368</v>
       </c>
-      <c r="S4">
+      <c r="T11">
         <v>6582</v>
       </c>
-      <c r="T4">
+      <c r="U11">
         <v>6797</v>
       </c>
-      <c r="U4">
+      <c r="V11">
         <v>23724</v>
       </c>
-      <c r="V4">
+      <c r="W11">
         <v>8435</v>
       </c>
-      <c r="W4">
+      <c r="X11">
         <v>7807</v>
       </c>
-      <c r="X4">
+      <c r="Y11">
         <v>7368</v>
       </c>
-      <c r="Y4">
+      <c r="Z11">
         <v>8252</v>
       </c>
-      <c r="Z4">
+      <c r="AA11">
         <v>31862</v>
       </c>
-      <c r="AA4">
+      <c r="AB11">
         <v>7248</v>
       </c>
-      <c r="AB4">
+      <c r="AC11">
         <v>7646</v>
       </c>
-      <c r="AC4">
+      <c r="AD11">
         <v>7224</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>11132</v>
+      </c>
+      <c r="C12">
         <v>4024</v>
       </c>
-      <c r="C5">
+      <c r="D12">
         <v>2873</v>
       </c>
-      <c r="D5">
+      <c r="E12">
         <v>2735</v>
       </c>
-      <c r="E5">
+      <c r="F12">
         <v>3231</v>
       </c>
-      <c r="F5">
+      <c r="G12">
         <v>12863</v>
       </c>
-      <c r="G5">
+      <c r="H12">
         <v>5489</v>
       </c>
-      <c r="H5">
+      <c r="I12">
         <v>3954</v>
       </c>
-      <c r="I5">
+      <c r="J12">
         <v>3740</v>
       </c>
-      <c r="J5">
+      <c r="K12">
         <v>4234</v>
       </c>
-      <c r="K5">
+      <c r="L12">
         <v>17417</v>
       </c>
-      <c r="L5">
+      <c r="M12">
         <v>7308</v>
       </c>
-      <c r="M5">
+      <c r="N12">
         <v>5129</v>
       </c>
-      <c r="N5">
+      <c r="O12">
         <v>5525</v>
       </c>
-      <c r="O5">
+      <c r="P12">
         <v>6520</v>
       </c>
-      <c r="P5">
+      <c r="Q12">
         <v>24482</v>
       </c>
-      <c r="Q5">
+      <c r="R12">
         <v>10010</v>
       </c>
-      <c r="R5">
+      <c r="S12">
         <v>6284</v>
       </c>
-      <c r="S5">
+      <c r="T12">
         <v>6450</v>
       </c>
-      <c r="T5">
+      <c r="U12">
         <v>7876</v>
       </c>
-      <c r="U5">
+      <c r="V12">
         <v>30620</v>
       </c>
-      <c r="V5">
+      <c r="W12">
         <v>12971</v>
       </c>
-      <c r="W5">
+      <c r="X12">
         <v>7836</v>
       </c>
-      <c r="X5">
+      <c r="Y12">
         <v>8775</v>
       </c>
-      <c r="Y5">
+      <c r="Z12">
         <v>8785</v>
       </c>
-      <c r="Z5">
+      <c r="AA12">
         <v>38367</v>
       </c>
-      <c r="AA5">
+      <c r="AB12">
         <v>14701</v>
       </c>
-      <c r="AB5">
+      <c r="AC12">
         <v>8806</v>
       </c>
-      <c r="AC5">
+      <c r="AD12">
         <v>8084</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>24348</v>
+      </c>
+      <c r="C13">
         <v>7172</v>
       </c>
-      <c r="C6">
+      <c r="D13">
         <v>7041</v>
       </c>
-      <c r="D6">
+      <c r="E13">
         <v>7266</v>
       </c>
-      <c r="E6">
+      <c r="F13">
         <v>8501</v>
       </c>
-      <c r="F6">
+      <c r="G13">
         <v>29980</v>
       </c>
-      <c r="G6">
+      <c r="H13">
         <v>8471</v>
       </c>
-      <c r="H6">
+      <c r="I13">
         <v>9190</v>
       </c>
-      <c r="I6">
+      <c r="J13">
         <v>9548</v>
       </c>
-      <c r="J6">
+      <c r="K13">
         <v>9981</v>
       </c>
-      <c r="K6">
+      <c r="L13">
         <v>37190</v>
       </c>
-      <c r="L6">
+      <c r="M13">
         <v>10875</v>
       </c>
-      <c r="M6">
+      <c r="N13">
         <v>11450</v>
       </c>
-      <c r="N6">
+      <c r="O13">
         <v>11455</v>
       </c>
-      <c r="O6">
+      <c r="P13">
         <v>12511</v>
       </c>
-      <c r="P6">
+      <c r="Q13">
         <v>46291</v>
       </c>
-      <c r="Q6">
+      <c r="R13">
         <v>12715</v>
       </c>
-      <c r="R6">
+      <c r="S13">
         <v>13348</v>
       </c>
-      <c r="S6">
+      <c r="T13">
         <v>13156</v>
       </c>
-      <c r="T6">
+      <c r="U13">
         <v>14549</v>
       </c>
-      <c r="U6">
+      <c r="V13">
         <v>53768</v>
       </c>
-      <c r="V6">
+      <c r="W13">
         <v>15761</v>
       </c>
-      <c r="W6">
+      <c r="X13">
         <v>16901</v>
       </c>
-      <c r="X6">
+      <c r="Y13">
         <v>17486</v>
       </c>
-      <c r="Y6">
+      <c r="Z13">
         <v>18277</v>
       </c>
-      <c r="Z6">
+      <c r="AA13">
         <v>68425</v>
       </c>
-      <c r="AA6">
+      <c r="AB13">
         <v>19516</v>
       </c>
-      <c r="AB6">
+      <c r="AC13">
         <v>19821</v>
       </c>
-      <c r="AC6">
+      <c r="AD13">
         <v>19604</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>215639</v>
+      </c>
+      <c r="C14">
         <v>78351</v>
       </c>
-      <c r="C7">
+      <c r="D14">
         <v>52896</v>
       </c>
-      <c r="D7">
+      <c r="E14">
         <v>45408</v>
       </c>
-      <c r="E7">
+      <c r="F14">
         <v>52579</v>
       </c>
-      <c r="F7">
+      <c r="G14">
         <v>229234</v>
       </c>
-      <c r="G7">
+      <c r="H14">
         <v>88293</v>
       </c>
-      <c r="H7">
+      <c r="I14">
         <v>61137</v>
       </c>
-      <c r="I7">
+      <c r="J14">
         <v>53265</v>
       </c>
-      <c r="J7">
+      <c r="K14">
         <v>62900</v>
       </c>
-      <c r="K7">
+      <c r="L14">
         <v>265595</v>
       </c>
-      <c r="L7">
+      <c r="M14">
         <v>84310</v>
       </c>
-      <c r="M7">
+      <c r="N14">
         <v>58015</v>
       </c>
-      <c r="N7">
+      <c r="O14">
         <v>53809</v>
       </c>
-      <c r="O7">
+      <c r="P14">
         <v>64040</v>
       </c>
-      <c r="P7">
+      <c r="Q14">
         <v>260174</v>
       </c>
-      <c r="Q7">
+      <c r="R14">
         <v>91819</v>
       </c>
-      <c r="R7">
+      <c r="S14">
         <v>58313</v>
       </c>
-      <c r="S7">
+      <c r="T14">
         <v>59685</v>
       </c>
-      <c r="T7">
+      <c r="U14">
         <v>64698</v>
       </c>
-      <c r="U7">
+      <c r="V14">
         <v>274515</v>
       </c>
-      <c r="V7">
+      <c r="W14">
         <v>111439</v>
       </c>
-      <c r="W7">
+      <c r="X14">
         <v>89584</v>
       </c>
-      <c r="X7">
+      <c r="Y14">
         <v>81434</v>
       </c>
-      <c r="Y7">
+      <c r="Z14">
         <v>83360</v>
       </c>
-      <c r="Z7">
+      <c r="AA14">
         <v>365817</v>
       </c>
-      <c r="AA7">
+      <c r="AB14">
         <v>123945</v>
       </c>
-      <c r="AB7">
+      <c r="AC14">
         <v>97278</v>
       </c>
-      <c r="AC7">
+      <c r="AD14">
         <v>82959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>211884</v>
+      </c>
+      <c r="C18">
+        <v>78290</v>
+      </c>
+      <c r="D18">
+        <v>50763</v>
+      </c>
+      <c r="E18">
+        <v>41026</v>
+      </c>
+      <c r="F18">
+        <v>46677</v>
+      </c>
+      <c r="G18">
+        <v>216756</v>
+      </c>
+      <c r="H18">
+        <v>77316</v>
+      </c>
+      <c r="I18">
+        <v>52217</v>
+      </c>
+      <c r="J18">
+        <v>41300</v>
+      </c>
+      <c r="K18">
+        <v>46889</v>
+      </c>
+      <c r="L18">
+        <v>217722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>45590</v>
+      </c>
+      <c r="C19">
+        <v>13081</v>
+      </c>
+      <c r="D19">
+        <v>8922</v>
+      </c>
+      <c r="E19">
+        <v>11424</v>
+      </c>
+      <c r="F19">
+        <v>10326</v>
+      </c>
+      <c r="G19">
+        <v>43753</v>
+      </c>
+      <c r="H19">
+        <v>13170</v>
+      </c>
+      <c r="I19">
+        <v>9113</v>
+      </c>
+      <c r="J19">
+        <v>11553</v>
+      </c>
+      <c r="K19">
+        <v>9699</v>
+      </c>
+      <c r="L19">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>18484</v>
+      </c>
+      <c r="C20">
+        <v>5374</v>
+      </c>
+      <c r="D20">
+        <v>4199</v>
+      </c>
+      <c r="E20">
+        <v>4292</v>
+      </c>
+      <c r="F20">
+        <v>5386</v>
+      </c>
+      <c r="G20">
+        <v>19251</v>
+      </c>
+      <c r="H20">
+        <v>5112</v>
+      </c>
+      <c r="I20">
+        <v>4078</v>
+      </c>
+      <c r="J20">
+        <v>3720</v>
+      </c>
+      <c r="K20">
+        <v>5299</v>
+      </c>
+      <c r="L20">
+        <v>18209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <f>B10/B20*1000</f>
+        <v>1235.1763687513526</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:L23" si="0">C10/C20*1000</f>
+        <v>1347.9717156680313</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1391.7599428435342</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1302.8890959925443</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1331.229112513925</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1342.7873876681731</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1348.7871674491391</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1434.0362923001471</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1432.7956989247311</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1398.565767125873</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1399.5277060794112</v>
       </c>
     </row>
   </sheetData>

--- a/input/Financial Statement AAPL/Sales By Segment.xlsx
+++ b/input/Financial Statement AAPL/Sales By Segment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/Financial-Statements /input/Financial Statement AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164DBDD-EA28-C643-BC83-81B8703BAC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FE669-598F-8F41-B5AD-EEAA58829206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>label</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Cost of Mac</t>
+  </si>
+  <si>
+    <t>Cost of iphone</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1847,53 +1850,186 @@
         <v>18209</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <f>B9/B18*1000</f>
+        <v>645.16433520228043</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:L22" si="0">C9/C18*1000</f>
+        <v>694.57146506578101</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>654.98492996867799</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>605.61595086042996</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>617.99173040255369</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>651.97272509180823</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>796.41988721610016</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>728.34517494302622</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>724.1162227602905</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>793.04314444752504</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>765.65069216707548</v>
+      </c>
+    </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23">
+        <f>C22/B22-1</f>
+        <v>7.6580689860994644E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:L23" si="1">D22/C22-1</f>
+        <v>-5.6994185750711579E-2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>-7.5374221374236661E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.0435029038684993E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5.4986164082033273E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>0.22155399538217102</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-8.5475907075889701E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-5.8062472687713251E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>9.5187650159927362E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>-3.4540935726179889E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f>B10/B20*1000</f>
         <v>1235.1763687513526</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:L23" si="0">C10/C20*1000</f>
+      <c r="C24">
+        <f t="shared" ref="C24:L24" si="2">C10/C20*1000</f>
         <v>1347.9717156680313</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
+      <c r="D24">
+        <f t="shared" si="2"/>
         <v>1391.7599428435342</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+      <c r="E24">
+        <f t="shared" si="2"/>
         <v>1302.8890959925443</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
+      <c r="F24">
+        <f t="shared" si="2"/>
         <v>1331.229112513925</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
+      <c r="G24">
+        <f t="shared" si="2"/>
         <v>1342.7873876681731</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
+      <c r="H24">
+        <f t="shared" si="2"/>
         <v>1348.7871674491391</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
+      <c r="I24">
+        <f t="shared" si="2"/>
         <v>1434.0362923001471</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="0"/>
+      <c r="J24">
+        <f t="shared" si="2"/>
         <v>1432.7956989247311</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
+      <c r="K24">
+        <f t="shared" si="2"/>
         <v>1398.565767125873</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
+      <c r="L24">
+        <f t="shared" si="2"/>
         <v>1399.5277060794112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>C24/B24</f>
+        <v>1.0913192235297573</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:L25" si="3">D24/C24</f>
+        <v>1.0324845296578069</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>0.93614498871880447</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>1.0217516721941642</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1.0086824086444603</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>1.0044681532132835</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1.0632042822680714</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.99913489401762201</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0.97610969112725099</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>1.0006878038746188</v>
       </c>
     </row>
   </sheetData>
